--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\WEiP\MGR\GITHUB EXCELE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1894F37F-AB4D-448A-9F9E-18EE35B4C332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1411F2-B749-4B84-AAE9-4526CD7FFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11232" windowHeight="12360" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -46,12 +46,23 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={A7E94069-B952-4CAA-96DA-C1BFFFC534BB}</author>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
+    <author>tc={9A5985B3-2109-46E1-AB92-387700301E0E}</author>
+    <author>tc={1A2C78D7-EABB-413D-9D1E-B03EC677BF0F}</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{A7E94069-B952-4CAA-96DA-C1BFFFC534BB}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Tabela Veda, bez tedy Veda nie wie gdzie szukać</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="F5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="G5" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H5" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -319,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I5" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -350,6 +361,22 @@
           </rPr>
           <t xml:space="preserve"> (Electricity)</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="4" shapeId="0" xr:uid="{9A5985B3-2109-46E1-AB92-387700301E0E}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Raczej niszowa sety, górne są ważniejsze</t>
+      </text>
+    </comment>
+    <comment ref="C20" authorId="5" shapeId="0" xr:uid="{1A2C78D7-EABB-413D-9D1E-B03EC677BF0F}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Dobra materiałowe nie wchodza w bilanse energii i tak samo env</t>
       </text>
     </comment>
   </commentList>
@@ -776,6 +803,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Maurizio Gargiulo</author>
+    <author>tc={030621A4-5586-4BF7-975B-B34AD6B7AF9E}</author>
   </authors>
   <commentList>
     <comment ref="C5" authorId="0" shapeId="0" xr:uid="{1F2E6007-9D90-4FAC-BD93-63283AEDF5E0}">
@@ -790,6 +818,14 @@
           <t>With this character *, this column is ignored from VEDA.
 It is just useful for your information</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="1" shapeId="0" xr:uid="{030621A4-5586-4BF7-975B-B34AD6B7AF9E}">
+      <text>
+        <t>[Komentarz podzielony na wątki]
+Używana wersja programu Excel umożliwia odczytanie tego komentarza podzielonego na wątki, jednak wszelkie wprowadzone w nim zmiany zostaną usunięte po otwarciu pliku w nowszej wersji programu Excel. Dowiedz się więcej: https://go.microsoft.com/fwlink/?linkid=870924
+Komentarz:
+    Lewo i prawo od pudełeczka of processes</t>
       </text>
     </comment>
   </commentList>
@@ -3405,6 +3441,12 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Gabriela Boroń" id="{69AAF2CB-1B0F-4AFD-8870-0D8BC21C1FBC}" userId="S::gaboron@student.agh.edu.pl::d68206cb-9245-4edc-9a12-46bd873af3ac" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3751,28 +3793,50 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2024-05-20T09:22:22.73" personId="{69AAF2CB-1B0F-4AFD-8870-0D8BC21C1FBC}" id="{A7E94069-B952-4CAA-96DA-C1BFFFC534BB}">
+    <text>Tabela Veda, bez tedy Veda nie wie gdzie szukać</text>
+  </threadedComment>
+  <threadedComment ref="B20" dT="2024-05-20T09:25:15.41" personId="{69AAF2CB-1B0F-4AFD-8870-0D8BC21C1FBC}" id="{9A5985B3-2109-46E1-AB92-387700301E0E}">
+    <text>Raczej niszowa sety, górne są ważniejsze</text>
+  </threadedComment>
+  <threadedComment ref="C20" dT="2024-05-20T09:26:42.54" personId="{69AAF2CB-1B0F-4AFD-8870-0D8BC21C1FBC}" id="{1A2C78D7-EABB-413D-9D1E-B03EC677BF0F}">
+    <text>Dobra materiałowe nie wchodza w bilanse energii i tak samo env</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="D5" dT="2024-05-20T09:45:03.08" personId="{69AAF2CB-1B0F-4AFD-8870-0D8BC21C1FBC}" id="{030621A4-5586-4BF7-975B-B34AD6B7AF9E}">
+    <text>Lewo i prawo od pudełeczka of processes</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A3" zoomScale="93" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" customWidth="1"/>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="3" width="20.90625" customWidth="1"/>
+    <col min="4" max="4" width="32.90625" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="7" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="15.6328125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.08984375" customWidth="1"/>
+    <col min="12" max="12" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="18" thickBot="1">
@@ -3978,7 +4042,7 @@
       <c r="J11" s="86"/>
       <c r="K11" s="117"/>
     </row>
-    <row r="12" spans="1:11" ht="13.8" thickBot="1">
+    <row r="12" spans="1:11" ht="13" thickBot="1">
       <c r="A12" s="87"/>
       <c r="B12" s="88"/>
       <c r="C12" s="88"/>
@@ -4054,7 +4118,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="13.8" thickBot="1">
+    <row r="21" spans="2:4" ht="13" thickBot="1">
       <c r="B21" s="79" t="s">
         <v>30</v>
       </c>
@@ -4082,24 +4146,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="90" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="14.08984375" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:15" ht="18" customHeight="1">
@@ -4366,7 +4430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="13.8" thickBot="1">
+    <row r="15" spans="1:15" ht="13" thickBot="1">
       <c r="M15" s="79" t="s">
         <v>51</v>
       </c>
@@ -4404,15 +4468,15 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="8" max="10" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
+    <col min="8" max="10" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -4436,7 +4500,7 @@
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
     </row>
-    <row r="2" spans="1:20" ht="17.399999999999999">
+    <row r="2" spans="1:20" ht="17.5">
       <c r="A2" s="5"/>
       <c r="B2" s="10" t="s">
         <v>26</v>
@@ -4524,7 +4588,7 @@
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
     </row>
-    <row r="6" spans="1:20" ht="27" thickBot="1">
+    <row r="6" spans="1:20" ht="25.5" thickBot="1">
       <c r="A6" s="5"/>
       <c r="B6" s="29" t="s">
         <v>71</v>
@@ -4553,7 +4617,7 @@
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
     </row>
-    <row r="7" spans="1:20" ht="13.8" thickBot="1">
+    <row r="7" spans="1:20" ht="13" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="90" t="s">
         <v>107</v>
@@ -4645,22 +4709,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11.453125" customWidth="1"/>
+    <col min="12" max="12" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="17.399999999999999">
+    <row r="2" spans="2:12" ht="17.5">
       <c r="B2" s="73" t="s">
         <v>142</v>
       </c>
@@ -4673,7 +4737,7 @@
       <c r="K2" s="55"/>
       <c r="L2" s="56"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" ht="13">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="E3" s="52"/>
@@ -4683,7 +4747,7 @@
       <c r="K3" s="55"/>
       <c r="L3" s="56"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" ht="13">
       <c r="E4" s="43" t="s">
         <v>22</v>
       </c>
@@ -4695,7 +4759,7 @@
       <c r="K4" s="60"/>
       <c r="L4" s="60"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" ht="13">
       <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
@@ -4727,7 +4791,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:12" ht="38" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -4759,7 +4823,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="27" thickBot="1">
+    <row r="7" spans="2:12" ht="25.5" thickBot="1">
       <c r="B7" s="90" t="s">
         <v>107</v>
       </c>
@@ -4806,7 +4870,7 @@
         <v>5.3</v>
       </c>
       <c r="G8" s="66">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="H8" s="67">
         <v>31.536000000000001</v>
@@ -4821,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="13.8" thickBot="1">
+    <row r="9" spans="2:12" ht="13" thickBot="1">
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="D9" s="69"/>
@@ -4870,20 +4934,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31854235-9EEE-44B2-8649-8E7FE48F8F70}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+    <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.399999999999999">
+    <row r="2" spans="2:10" ht="17.5">
       <c r="B2" s="73" t="s">
         <v>128</v>
       </c>
@@ -4896,7 +4960,7 @@
       <c r="I2" s="54"/>
       <c r="J2" s="55"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" ht="13">
       <c r="B3" s="57"/>
       <c r="C3" s="58"/>
       <c r="E3" s="52"/>
@@ -4904,7 +4968,7 @@
       <c r="I3" s="54"/>
       <c r="J3" s="55"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" ht="13">
       <c r="E4" s="43" t="s">
         <v>22</v>
       </c>
@@ -4914,7 +4978,7 @@
       <c r="I4" s="60"/>
       <c r="J4" s="60"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" ht="13">
       <c r="B5" s="61" t="s">
         <v>13</v>
       </c>
@@ -4943,7 +5007,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:10" ht="38" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -4999,7 +5063,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="67"/>
     </row>
-    <row r="8" spans="2:10" ht="13.8" thickBot="1">
+    <row r="8" spans="2:10" ht="13" thickBot="1">
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="D8" s="69"/>
@@ -5010,7 +5074,7 @@
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
     </row>
-    <row r="10" spans="2:10" ht="17.399999999999999">
+    <row r="10" spans="2:10" ht="17.5">
       <c r="B10" s="73" t="s">
         <v>97</v>
       </c>
@@ -5020,12 +5084,12 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" ht="13">
       <c r="B15" s="43" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" ht="13">
       <c r="B16" s="61" t="s">
         <v>2</v>
       </c>
@@ -5039,7 +5103,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="13.8" thickBot="1">
+    <row r="17" spans="2:5" ht="13" thickBot="1">
       <c r="B17" s="29" t="s">
         <v>96</v>
       </c>
@@ -5061,7 +5125,7 @@
       <c r="D18" s="65"/>
       <c r="E18" s="66"/>
     </row>
-    <row r="19" spans="2:5" ht="13.8" thickBot="1">
+    <row r="19" spans="2:5" ht="13" thickBot="1">
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -5084,13 +5148,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="29.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="15">
+    <row r="2" spans="2:10" ht="15.5">
       <c r="B2" s="38" t="s">
         <v>79</v>
       </c>
@@ -5106,7 +5170,7 @@
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" ht="13">
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
         <v>74</v>
@@ -5114,7 +5178,7 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" ht="13">
       <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
@@ -5137,7 +5201,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="40.200000000000003" thickBot="1">
+    <row r="6" spans="2:10" ht="38" thickBot="1">
       <c r="B6" s="29" t="s">
         <v>71</v>
       </c>
@@ -5186,7 +5250,7 @@
       <c r="E10" s="115"/>
       <c r="F10" s="115"/>
     </row>
-    <row r="11" spans="2:10" ht="13.8" thickBot="1">
+    <row r="11" spans="2:10" ht="13" thickBot="1">
       <c r="B11" s="49"/>
       <c r="C11" s="50"/>
       <c r="D11" s="116"/>
@@ -5202,6 +5266,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101007B5E91D90439164FB1E7A099E16B4F92" ma:contentTypeVersion="6" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="53f028f4d2c54806023f486367284495">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ed486f94-dcec-4d02-b634-b755b9f6f9c5" xmlns:ns3="58a8bd51-6561-42ef-8e0a-a55781e8d45f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="50499fff843428d68044e1161109df82" ns2:_="" ns3:_="">
     <xsd:import namespace="ed486f94-dcec-4d02-b634-b755b9f6f9c5"/>
@@ -5378,22 +5457,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
+    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48474C74-F4AC-47B6-98DD-6AD342B6BA9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5410,23 +5493,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
-    <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_SIMPLE_V01.xlsx
+++ b/VT_Model_SIMPLE_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabry\OneDrive\Pulpit\WEiP\MGR\GITHUB EXCELE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1411F2-B749-4B84-AAE9-4526CD7FFD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4A7D5F-3FE7-4175-96FE-F05B6878909A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -1201,9 +1201,6 @@
     <t>Brown Coal Mine</t>
   </si>
   <si>
-    <t>ELEC_HV</t>
-  </si>
-  <si>
     <t>Brown Coal</t>
   </si>
   <si>
@@ -1341,6 +1338,9 @@
   </si>
   <si>
     <t>PLN/GJ</t>
+  </si>
+  <si>
+    <t>ELC_HV</t>
   </si>
 </sst>
 </file>
@@ -3820,8 +3820,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="93" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="93" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -3948,7 +3948,7 @@
         <v>103</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7" s="96" t="s">
         <v>100</v>
@@ -3968,10 +3968,10 @@
         <v>9</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="77" t="s">
         <v>100</v>
@@ -3991,10 +3991,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="78" t="s">
         <v>132</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="100" t="s">
         <v>100</v>
@@ -4014,13 +4014,13 @@
         <v>27</v>
       </c>
       <c r="C10" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="97" t="s">
+      <c r="E10" s="97" t="s">
         <v>144</v>
-      </c>
-      <c r="E10" s="97" t="s">
-        <v>145</v>
       </c>
       <c r="F10" s="97"/>
       <c r="G10" s="97"/>
@@ -4065,13 +4065,13 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
       <c r="B16" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="94" t="s">
-        <v>127</v>
-      </c>
       <c r="D16" s="94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1">
@@ -4082,7 +4082,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.75" customHeight="1">
@@ -4093,7 +4093,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -4104,7 +4104,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -4115,7 +4115,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="13" thickBot="1">
@@ -4126,7 +4126,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4217,7 +4217,7 @@
         <v>19</v>
       </c>
       <c r="M5" s="118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" s="118"/>
       <c r="O5" s="118"/>
@@ -4251,13 +4251,13 @@
         <v>59</v>
       </c>
       <c r="M6" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="N6" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="94" t="s">
+      <c r="O6" s="94" t="s">
         <v>124</v>
-      </c>
-      <c r="O6" s="94" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="18.75" customHeight="1">
@@ -4275,7 +4275,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" s="95" t="s">
         <v>101</v>
@@ -4326,16 +4326,16 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="78" t="s">
         <v>129</v>
-      </c>
-      <c r="E9" s="78" t="s">
-        <v>130</v>
       </c>
       <c r="F9" s="78" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="78" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>102</v>
@@ -4625,7 +4625,7 @@
       <c r="C7" s="90"/>
       <c r="D7" s="90"/>
       <c r="E7" s="90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="90" t="s">
         <v>108</v>
@@ -4709,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8885B33B-6004-4066-985A-D9E4166DC0DF}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4726,7 +4726,7 @@
   <sheetData>
     <row r="2" spans="2:12" ht="17.5">
       <c r="B2" s="73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -4834,19 +4834,19 @@
         <v>104</v>
       </c>
       <c r="G7" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="I7" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="J7" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="K7" s="93" t="s">
         <v>120</v>
-      </c>
-      <c r="K7" s="93" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="E8" s="65" t="str">
         <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
+        <v>ELC_HV</v>
       </c>
       <c r="F8" s="108">
         <v>5.3</v>
@@ -4899,13 +4899,13 @@
     </row>
     <row r="11" spans="2:12">
       <c r="B11" s="119" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="120"/>
       <c r="D11" s="120"/>
       <c r="E11" s="120"/>
       <c r="F11" s="121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G11" s="121"/>
       <c r="H11" s="121"/>
@@ -4949,7 +4949,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="17.5">
       <c r="B2" s="73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="D7" s="65" t="str">
         <f>SEC_Comm!C8</f>
-        <v>ELEC_HV</v>
+        <v>ELC_HV</v>
       </c>
       <c r="E7" s="65" t="str">
         <f>SEC_Comm!C9</f>
@@ -5209,7 +5209,7 @@
         <v>75</v>
       </c>
       <c r="D6" s="123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="124"/>
       <c r="F6" s="124"/>
@@ -5266,18 +5266,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5458,20 +5458,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2354E624-82C6-4C58-B5AA-5F4B4FEE1585}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="8acd6055-54fc-4ce7-b3df-0a09834a0329"/>
     <ds:schemaRef ds:uri="708d6b01-37ca-4db4-bc7f-9b68f32c58b8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BEC55BD-C1AB-47C6-923C-1E0B74C138B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
